--- a/fhir/core/StructureDefinition-ConditionLastAssertedDate.xlsx
+++ b/fhir/core/StructureDefinition-ConditionLastAssertedDate.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="106">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-08T22:32:51+01:00</t>
+    <t>2023-04-30T22:11:32+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -129,6 +129,9 @@
     <t>element:Element</t>
   </si>
   <si>
+    <t>ID</t>
+  </si>
+  <si>
     <t>Path</t>
   </si>
   <si>
@@ -244,6 +247,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -645,7 +652,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:AK6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -655,41 +662,41 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.3515625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.171875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.1484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.06640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="8.171875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="36.2890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="9.734375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="14.21484375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="19.80078125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="17.60546875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="17.4453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="19.80078125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="17.60546875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="17.4453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.6796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.6796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -801,93 +808,96 @@
       <c r="AJ1" t="s" s="1">
         <v>73</v>
       </c>
+      <c r="AK1" t="s" s="1">
+        <v>74</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="B2" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L2" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF2" t="s" s="2">
         <v>29</v>
-      </c>
-      <c r="AF2" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>76</v>
@@ -896,412 +906,427 @@
         <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AK2" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K3" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L3" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="M3" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q3" s="2"/>
+      <c r="R3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF3" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH3" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="L3" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE3" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="AI3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
+      </c>
+      <c r="AK3" t="s" s="2">
+        <v>86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="L4" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="M4" s="2"/>
+      <c r="M4" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="N4" s="2"/>
-      <c r="O4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
+      </c>
+      <c r="AK4" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="N5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="S5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF5" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="L5" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N5" s="2"/>
-      <c r="O5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="R5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AG5" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>98</v>
+        <v>75</v>
+      </c>
+      <c r="AK5" t="s" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q6" s="2"/>
+      <c r="R6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF6" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK6" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/core/StructureDefinition-ConditionLastAssertedDate.xlsx
+++ b/fhir/core/StructureDefinition-ConditionLastAssertedDate.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-30T22:11:32+02:00</t>
+    <t>2023-05-04T21:41:07+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/core/StructureDefinition-ConditionLastAssertedDate.xlsx
+++ b/fhir/core/StructureDefinition-ConditionLastAssertedDate.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T21:41:07+02:00</t>
+    <t>2023-05-05T01:43:00+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/core/StructureDefinition-ConditionLastAssertedDate.xlsx
+++ b/fhir/core/StructureDefinition-ConditionLastAssertedDate.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-05T01:43:00+02:00</t>
+    <t>2023-12-01T14:04:08+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -126,7 +126,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:Condition</t>
   </si>
   <si>
     <t>ID</t>
@@ -257,6 +257,10 @@
 </t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>Extension.id</t>
   </si>
   <si>
@@ -300,10 +304,6 @@
   </si>
   <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -461,10 +461,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -909,7 +909,7 @@
         <v>79</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>75</v>
@@ -917,10 +917,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -931,7 +931,7 @@
         <v>76</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>75</v>
@@ -943,13 +943,13 @@
         <v>75</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1000,13 +1000,13 @@
         <v>75</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>75</v>
@@ -1015,15 +1015,15 @@
         <v>75</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1046,13 +1046,13 @@
         <v>75</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>29</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1091,19 +1091,19 @@
         <v>75</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>76</v>
@@ -1115,7 +1115,7 @@
         <v>75</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>75</v>
@@ -1134,10 +1134,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>75</v>
@@ -1211,10 +1211,10 @@
         <v>95</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>75</v>
@@ -1242,7 +1242,7 @@
         <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>75</v>
@@ -1317,7 +1317,7 @@
         <v>76</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>75</v>

--- a/fhir/core/StructureDefinition-ConditionLastAssertedDate.xlsx
+++ b/fhir/core/StructureDefinition-ConditionLastAssertedDate.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>3.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-01T14:04:08+01:00</t>
+    <t>2024-01-08T21:51:35+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/core/StructureDefinition-ConditionLastAssertedDate.xlsx
+++ b/fhir/core/StructureDefinition-ConditionLastAssertedDate.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-08T21:51:35+01:00</t>
+    <t>2024-05-06T15:28:33+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -66,7 +66,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 Denmark (http://www.hl7.dk, jenskristianvilladsen@gmail.com)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/fhir/core/StructureDefinition-ConditionLastAssertedDate.xlsx
+++ b/fhir/core/StructureDefinition-ConditionLastAssertedDate.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.2.0</t>
+    <t>3.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -45,7 +45,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-06T15:28:33+02:00</t>
+    <t>2024-12-11T09:54:35+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/core/StructureDefinition-ConditionLastAssertedDate.xlsx
+++ b/fhir/core/StructureDefinition-ConditionLastAssertedDate.xlsx
@@ -45,7 +45,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T09:54:35+01:00</t>
+    <t>2024-12-11T10:20:02+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/core/StructureDefinition-ConditionLastAssertedDate.xlsx
+++ b/fhir/core/StructureDefinition-ConditionLastAssertedDate.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.3.0</t>
+    <t>3.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T10:20:02+01:00</t>
+    <t>2025-02-01T19:23:09+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/core/StructureDefinition-ConditionLastAssertedDate.xlsx
+++ b/fhir/core/StructureDefinition-ConditionLastAssertedDate.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-01T19:23:09+01:00</t>
+    <t>2025-12-19T17:27:08+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -66,7 +66,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>HL7 Denmark (http://www.hl7.dk, jenskristianvilladsen@gmail.com)</t>
+    <t>HL7 Denmark (http://www.hl7.dk, dk-affiliate@hl7.dk)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -661,42 +661,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="8.171875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="16.41796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="16.41796875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.79296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="7.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="9.734375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="8.3984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="14.21484375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="12.26171875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="19.80078125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="17.60546875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="17.4453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.80078125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="17.08203125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.18359375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="34.578125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="15.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="22.6796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="19.5625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
